--- a/data/trans_bre/P37A-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P37A-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,57</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-9,29</t>
+          <t>-5,64</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,59</t>
+          <t>-7,96</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,14</t>
+          <t>-9,45</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-5,38%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-10,58%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-7,41%</t>
+          <t>-2,07%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-9,84%</t>
+          <t>-6,47%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-8,96%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-11,29%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 3,24</t>
+          <t>-10,12; 8,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,92; -3,96</t>
+          <t>-12,49; 0,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,74; -0,74</t>
+          <t>-13,43; -1,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,54; -1,28</t>
+          <t>-21,75; 1,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 4,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,48; -4,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,85; -0,89</t>
+          <t>-11,58; 11,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-18,1; -1,66</t>
+          <t>-13,71; 0,94</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-14,86; -2,3</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-24,62; 1,48</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-9,58</t>
+          <t>-8,23</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-11,67</t>
+          <t>-10,93</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-9,33</t>
+          <t>-8,72</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-18,1</t>
+          <t>-11,8</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-11,62%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-14,59%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-11,99%</t>
+          <t>-10,1%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-23,11%</t>
+          <t>-13,81%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-11,25%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-15,8%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,76; -4,23</t>
+          <t>-14,31; -1,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-16,41; -6,76</t>
+          <t>-16,9; -5,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,86; -3,76</t>
+          <t>-13,88; -2,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,87; -11,87</t>
+          <t>-19,42; -4,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-17,59; -5,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,86; -8,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-18,52; -4,82</t>
+          <t>-16,87; -1,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-29,58; -15,96</t>
+          <t>-20,88; -6,78</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-17,47; -3,61</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-24,94; -7,0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-7,54</t>
+          <t>-6,74</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-8,27</t>
+          <t>-10,23</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-12,36</t>
+          <t>-12,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,79</t>
+          <t>-6,31</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-9,64%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-10,88%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-15,69%</t>
+          <t>-8,8%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-9,07%</t>
+          <t>-13,35%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-15,45%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-8,68%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,52; -0,4</t>
+          <t>-15,08; 1,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,17; -1,97</t>
+          <t>-16,3; -3,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,96; -6,98</t>
+          <t>-17,68; -6,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,43; 4,14</t>
+          <t>-14,24; 1,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-17,78; -0,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,83; -2,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-22,03; -9,37</t>
+          <t>-18,71; 2,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-19,27; 5,96</t>
+          <t>-20,75; -4,94</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-21,89; -8,35</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-18,51; 2,76</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-7,61</t>
+          <t>-6,97</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-9,66</t>
+          <t>-11,86</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-9,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-11,8</t>
+          <t>-9,39</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-9,33%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-12,0%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-11,19%</t>
+          <t>-8,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-14,97%</t>
+          <t>-14,63%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-11,86%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,08; -3,81</t>
+          <t>-12,27; -0,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,67; -6,18</t>
+          <t>-18,49; -5,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,86; -5,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,06; -7,45</t>
+          <t>-16,35; -1,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,29; -4,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,4; -7,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,74; -7,12</t>
+          <t>-14,61; -0,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,91; -9,66</t>
+          <t>-22,02; -6,83</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-19,95; -2,04</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-6,63</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-9,91</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-9,16</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-9,15</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-8,24%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-12,35%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-11,4%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-11,91%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-10,33; -2,77</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-12,99; -6,64</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-12,57; -5,27</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-13,47; -4,97</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-12,6; -3,54</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-15,87; -8,41</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-15,31; -6,71</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-17,1; -6,6</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P37A-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P37A-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,73</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-5,64</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-7,96</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-9,45</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-2,07%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-6,47%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-8,96%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-11,29%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>-1.798967169068677</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-5.525436685293716</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-7.793458091684236</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-8.3395439155858</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>-0.02170645028184858</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.06338881223437677</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.08777188450523137</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.09976059376511885</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-10,12; 8,66</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-12,49; 0,69</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-13,43; -1,87</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-21,75; 1,27</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-11,58; 11,54</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-13,71; 0,94</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-14,86; -2,3</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-24,62; 1,48</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-10.72307348386601</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-12.40858122153615</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-13.38093050177936</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-19.464940881077</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.1224667489936119</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1367930470396851</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.1477310933187807</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.2210862056362541</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>8.395555617735878</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.6869946545318921</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-1.762885082526021</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>2.336004152186474</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>0.1088491591437243</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.008465573604614765</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>-0.02048586662808471</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.02846663301210182</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-8,23</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-10,93</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-8,72</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-11,8</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-10,1%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-13,81%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-11,25%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-15,8%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-14,31; -1,41</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-16,9; -5,19</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-13,88; -2,63</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-19,42; -4,94</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-16,87; -1,76</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-20,88; -6,78</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-17,47; -3,61</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-24,94; -7,0</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>-8.544628646878316</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-10.86694311015631</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-9.138272196378539</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-11.97621171838907</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>-0.1042540499902384</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.1367966444990847</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.1171998586149491</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.159897148181155</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-6,74</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-10,23</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-12,16</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-6,31</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-8,8%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-13,35%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-15,45%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-8,68%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-14.33173123410078</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-16.97842263877144</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-14.27034205123433</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-19.58147347594443</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.1688675235317569</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.2066455587843129</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.1782852851280869</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.2498608732494859</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-15,08; 1,68</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-16,3; -3,41</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-17,68; -6,22</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-14,24; 1,98</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-18,71; 2,34</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-20,75; -4,94</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-21,89; -8,35</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-18,51; 2,76</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-1.612692106701759</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-5.160006801895475</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-2.908564979155843</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>-5.200917255095765</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>-0.02074708563163562</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>-0.06689742316422925</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>-0.03873876124685655</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>-0.07239703075973598</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-6,97</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-11,86</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-9,39</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-8,61%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-14,63%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-11,86%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-6.870368933229798</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-10.20147706938911</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-12.23701660716794</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-6.463346459615716</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-0.08974114360918016</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.1332263222511921</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.1555374671746261</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.08892145669997638</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-12,27; -0,56</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-18,49; -5,28</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-16,35; -1,49</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-14,61; -0,71</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-22,02; -6,83</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-19,95; -2,04</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-15.51669636940388</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-16.24286071768017</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-17.77033287929351</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-14.46693540073198</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.1931647463888362</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.2053554806685393</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.2192720407074132</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.188151164998115</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1.414774889984657</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-3.392236391361247</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-6.262189713650952</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.774596187045386</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.01864804751174339</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>-0.04805216380030762</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>-0.08221993010121637</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.02233253203925029</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-6,63</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-9,91</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-9,16</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-9,15</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-8,24%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-12,35%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-11,4%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-11,91%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-10,33; -2,77</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-12,99; -6,64</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-12,57; -5,27</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-13,47; -4,97</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-12,6; -3,54</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-15,87; -8,41</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-15,31; -6,71</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-17,1; -6,6</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>-6.563126967031375</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-9.232492564758644</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-9.296965784747835</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-8.659493334008516</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>-0.08190946689634103</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.1153420063149554</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.1155546733225396</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.1142632841454828</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-11.24876223173193</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-13.12438181784424</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-12.70097600207403</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-13.99262984862993</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>-0.1369219453334544</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1608217432090673</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.1547850820637768</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1766678116749582</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-1.540658144082696</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-5.613605409604701</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-5.398510255227846</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>-3.692880935682636</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>-0.02087655185794475</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>-0.07204296709524127</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>-0.0686296644685037</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>-0.0503908767254594</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
